--- a/import/data_import/PN000011 Clinical Pediatric MRI with and without Motion Correction/PublicnEUro_record_data.xlsx
+++ b/import/data_import/PN000011 Clinical Pediatric MRI with and without Motion Correction/PublicnEUro_record_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PublicnEUro\DataCatalogue\import\data_import\PN000011 Clinical Pediatric MRI with and without Motion Correction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C389606E-3230-4869-949A-98EAC3FA6676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E439C5BD-8DEA-4D61-9BC8-FAFF29778DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{3564177F-B082-41D2-8CA9-C4F8A0AF3796}"/>
   </bookViews>
@@ -308,10 +308,10 @@
     <t xml:space="preserve"> 84757009; 65389002; 81669005; 397614000; 60700002; 248290002</t>
   </si>
   <si>
-    <t>https://doi.org/10.70883/</t>
-  </si>
-  <si>
     <t>PN000011</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.70883/VMIF5895</t>
   </si>
 </sst>
 </file>
@@ -1419,7 +1419,7 @@
         <v>36</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -1427,7 +1427,7 @@
         <v>37</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1447,6 +1447,7 @@
     <hyperlink ref="B16" r:id="rId5" xr:uid="{3D88EA3B-FE94-493F-A582-81F0AB3F3F17}"/>
     <hyperlink ref="B7" r:id="rId6" location="dataset_descriptionjson" xr:uid="{0F3B03E6-6999-4F7C-90D7-74D7D2407E81}"/>
     <hyperlink ref="B9" r:id="rId7" xr:uid="{E20F6D46-16C6-4ACB-A92C-B97E19C0094B}"/>
+    <hyperlink ref="B23" r:id="rId8" xr:uid="{AC414AC4-A9D3-46D0-872C-E0DBE9615CA9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/import/data_import/PN000011 Clinical Pediatric MRI with and without Motion Correction/PublicnEUro_record_data.xlsx
+++ b/import/data_import/PN000011 Clinical Pediatric MRI with and without Motion Correction/PublicnEUro_record_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PublicnEUro\DataCatalogue\import\data_import\PN000011 Clinical Pediatric MRI with and without Motion Correction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E439C5BD-8DEA-4D61-9BC8-FAFF29778DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4594FAF1-97FF-46DE-8275-729D963B00F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{3564177F-B082-41D2-8CA9-C4F8A0AF3796}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="90">
   <si>
     <t># Metadata record for PublicnEUro
 # BOLD field are mandatory</t>
@@ -312,6 +312,12 @@
   </si>
   <si>
     <t>https://doi.org/10.70883/VMIF5895</t>
+  </si>
+  <si>
+    <t>PublicnEUro ID</t>
+  </si>
+  <si>
+    <t>your future DOI</t>
   </si>
 </sst>
 </file>
@@ -1218,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18245DAB-DD54-4DEB-88CA-D668DC306750}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1405,8 +1411,8 @@
         <v>33</v>
       </c>
       <c r="B18" s="16"/>
-      <c r="C18" s="17" t="s">
-        <v>34</v>
+      <c r="C18" s="17">
+        <v>45866</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -1418,7 +1424,10 @@
       <c r="A22" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1426,7 +1435,10 @@
       <c r="A23" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1447,7 +1459,7 @@
     <hyperlink ref="B16" r:id="rId5" xr:uid="{3D88EA3B-FE94-493F-A582-81F0AB3F3F17}"/>
     <hyperlink ref="B7" r:id="rId6" location="dataset_descriptionjson" xr:uid="{0F3B03E6-6999-4F7C-90D7-74D7D2407E81}"/>
     <hyperlink ref="B9" r:id="rId7" xr:uid="{E20F6D46-16C6-4ACB-A92C-B97E19C0094B}"/>
-    <hyperlink ref="B23" r:id="rId8" xr:uid="{AC414AC4-A9D3-46D0-872C-E0DBE9615CA9}"/>
+    <hyperlink ref="C23" r:id="rId8" xr:uid="{AC414AC4-A9D3-46D0-872C-E0DBE9615CA9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
